--- a/public/dokumen/dataMahasiswa/Book1.xlsx
+++ b/public/dokumen/dataMahasiswa/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF88D58-B939-4969-A86F-746D30BB7032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E789CB-ECCA-4044-A4D1-969BC670403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{74993E30-AB15-48CB-B4E1-796FDCC9BF27}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{74993E30-AB15-48CB-B4E1-796FDCC9BF27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Ahmad Ilham</t>
   </si>
@@ -43,6 +43,51 @@
   </si>
   <si>
     <t>Ilham ang</t>
+  </si>
+  <si>
+    <t>SARAH MUSTIKA DEWI</t>
+  </si>
+  <si>
+    <t>M. ADIT PRINANSYAH</t>
+  </si>
+  <si>
+    <t>M. HELMI AL ZULIANSYAH</t>
+  </si>
+  <si>
+    <t>HIQNAN DZUNDIL HAQ</t>
+  </si>
+  <si>
+    <t>DWI LILIYAWATI</t>
+  </si>
+  <si>
+    <t>Surya Saputra</t>
+  </si>
+  <si>
+    <t>SELVIA ELDINA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muhammad Iqbal Syahbana	</t>
+  </si>
+  <si>
+    <t>HUSNIATUN AINI</t>
+  </si>
+  <si>
+    <t>LESY NUGRAHA</t>
+  </si>
+  <si>
+    <t>NILAM CAHYA</t>
+  </si>
+  <si>
+    <t>ATIQAH HANIFAH SHALIHAH</t>
+  </si>
+  <si>
+    <t>FARHAN HIBATULLAH</t>
+  </si>
+  <si>
+    <t>Tania Argadini</t>
+  </si>
+  <si>
+    <t>MEILIKA DWI PUTRI</t>
   </si>
 </sst>
 </file>
@@ -395,14 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E9A2CE-186A-496B-B3CA-24DDF2B14E6F}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
@@ -418,6 +464,9 @@
         <v>1915061005</v>
       </c>
       <c r="D1">
+        <v>2019</v>
+      </c>
+      <c r="E1">
         <v>20001022</v>
       </c>
       <c r="F1" s="1"/>
@@ -433,6 +482,9 @@
         <v>1915061006</v>
       </c>
       <c r="D2">
+        <v>2019</v>
+      </c>
+      <c r="E2">
         <v>20001021</v>
       </c>
     </row>
@@ -447,10 +499,303 @@
         <v>1915061007</v>
       </c>
       <c r="D3">
+        <v>2019</v>
+      </c>
+      <c r="E3">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1915061008</v>
+      </c>
+      <c r="D4">
+        <v>2019</v>
+      </c>
+      <c r="E4">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1915061009</v>
+      </c>
+      <c r="D5">
+        <v>2019</v>
+      </c>
+      <c r="E5">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1915061010</v>
+      </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1915061011</v>
+      </c>
+      <c r="D7">
+        <v>2019</v>
+      </c>
+      <c r="E7">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1915061012</v>
+      </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
+      <c r="E8">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1915061013</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1915061014</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>1915061015</v>
+      </c>
+      <c r="D11">
+        <v>2019</v>
+      </c>
+      <c r="E11">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1915061016</v>
+      </c>
+      <c r="D12">
+        <v>2019</v>
+      </c>
+      <c r="E12">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>1915061017</v>
+      </c>
+      <c r="D13">
+        <v>2019</v>
+      </c>
+      <c r="E13">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>1915061018</v>
+      </c>
+      <c r="D14">
+        <v>2019</v>
+      </c>
+      <c r="E14">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1915061019</v>
+      </c>
+      <c r="D15">
+        <v>2019</v>
+      </c>
+      <c r="E15">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1915061020</v>
+      </c>
+      <c r="D16">
+        <v>2019</v>
+      </c>
+      <c r="E16">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1915061021</v>
+      </c>
+      <c r="D17">
+        <v>2019</v>
+      </c>
+      <c r="E17">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1915061022</v>
+      </c>
+      <c r="D18">
+        <v>2019</v>
+      </c>
+      <c r="E18">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>1915061023</v>
+      </c>
+      <c r="D19">
+        <v>2019</v>
+      </c>
+      <c r="E19">
+        <v>20001020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>1915061024</v>
+      </c>
+      <c r="D20">
+        <v>2019</v>
+      </c>
+      <c r="E20">
         <v>20001020</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>